--- a/Merged dataset.xlsx
+++ b/Merged dataset.xlsx
@@ -52,7 +52,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -158,8 +159,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -179,9 +184,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -197,12 +199,19 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,7 +544,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -548,57 +557,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2015</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <f>100000</f>
         <v>100000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2016</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>2000000</v>
       </c>
     </row>
@@ -612,7 +621,7 @@
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="10">
         <v>1900000</v>
       </c>
     </row>
